--- a/Шаблон таблицы тест кейсов - (ДЗ 2,5,6).xlsx
+++ b/Шаблон таблицы тест кейсов - (ДЗ 2,5,6).xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="Workbook________" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cpu\Desktop\Тестирование\QA Tester\Учебные тесты\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cpu\Documents\GitHub\Second_Test_Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22425" windowHeight="10725" tabRatio="682" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" tabRatio="682" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="114">
   <si>
     <t>passed</t>
   </si>
@@ -596,6 +596,9 @@
   </si>
   <si>
     <t>Вход с пустыми полями</t>
+  </si>
+  <si>
+    <t>04.02.2021г</t>
   </si>
 </sst>
 </file>
@@ -1395,10 +1398,10 @@
   <dimension ref="A1:Z71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="M8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="P37" sqref="P37"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -1411,7 +1414,7 @@
     <col min="6" max="6" width="23.75" customWidth="1"/>
     <col min="7" max="7" width="9.5" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="3.125" customWidth="1"/>
-    <col min="9" max="9" width="5.5" customWidth="1"/>
+    <col min="9" max="9" width="8.375" customWidth="1"/>
     <col min="10" max="10" width="1.125" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="2.125" customWidth="1"/>
     <col min="12" max="12" width="15.875" customWidth="1"/>
@@ -1426,7 +1429,7 @@
     <col min="21" max="21" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="6" customHeight="1">
+    <row r="1" spans="1:26" ht="32.25" customHeight="1">
       <c r="A1" s="11"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1471,7 +1474,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" hidden="1">
+    <row r="2" spans="1:26" ht="201" hidden="1" customHeight="1">
       <c r="A2" s="11"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1492,7 +1495,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="16">
         <f>COUNTIF(N$8:N$52,"passed")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="16">
@@ -1516,7 +1519,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" hidden="1">
+    <row r="3" spans="1:26" ht="18" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1532,7 +1535,9 @@
       <c r="K3" s="10"/>
       <c r="L3" s="21"/>
       <c r="M3" s="10"/>
-      <c r="N3" s="21"/>
+      <c r="N3" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="O3" s="10"/>
       <c r="P3" s="21"/>
       <c r="Q3" s="10"/>
@@ -1546,7 +1551,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" hidden="1">
+    <row r="4" spans="1:26" ht="3.75" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1572,7 +1577,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="25.5" hidden="1" customHeight="1">
+    <row r="5" spans="1:26" ht="202.5" hidden="1" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1612,7 +1617,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="27" customHeight="1">
+    <row r="6" spans="1:26" ht="27" hidden="1" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="41" t="s">
         <v>2</v>
@@ -1658,7 +1663,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="22.5" customHeight="1">
+    <row r="7" spans="1:26" ht="22.5" hidden="1" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="41"/>
       <c r="C7" s="47"/>
@@ -1714,7 +1719,9 @@
       <c r="K8" s="9"/>
       <c r="L8" s="5"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="5"/>
+      <c r="N8" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="O8" s="10"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="10"/>
@@ -1750,7 +1757,9 @@
       <c r="K9" s="9"/>
       <c r="L9" s="5"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="5"/>
+      <c r="N9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="O9" s="10"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="10"/>
@@ -1786,7 +1795,9 @@
       <c r="K10" s="9"/>
       <c r="L10" s="5"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="5"/>
+      <c r="N10" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="O10" s="10"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="10"/>
@@ -1822,7 +1833,9 @@
       <c r="K11" s="9"/>
       <c r="L11" s="5"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="5"/>
+      <c r="N11" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="O11" s="10"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="10"/>
